--- a/biology/Botanique/Spermacoce_prostrata/Spermacoce_prostrata.xlsx
+++ b/biology/Botanique/Spermacoce_prostrata/Spermacoce_prostrata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Spermacoce prostrata est une espèce de plantes herbacées rudérale d'origine néotropicales appartenant à la famille des Rubiaceae.
 </t>
@@ -511,13 +523,15 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Spermacoce prostrata est une herbacée atteignant jusqu'à 40 cm de haut, souvent faiblement ramifiée, hirtelleuses à glabrescente.
 Les feuilles à base aiguës, mesurent 6-35 × 1-10 mm, comportent une stipule engainante longue de 1-1,5 mm, et des soies longues 3-7,1-3 mm.
 Les inflorescences sont terminales et axillaires. Le calice porte (2, 3)4 lobes égaux à fortement inégaux, les plus longs mesurant 1-1,2 mm.
 La corolle est blanche, longue de 1-1,2 mm, lobée sur environ la moitié de sa longueur.
-Le fruit est de forme ellipsoïde, mesurant environ 1 × 1 mm[4].
+Le fruit est de forme ellipsoïde, mesurant environ 1 × 1 mm.
 </t>
         </is>
       </c>
@@ -546,11 +560,13 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Spermacoce prostrata est présent du Mexique au Brésil en passant par l'Amérique centrale, les Antilles, la Colombie, le Venezuela, le Guyana, le Suriname, la Guyane, l'Équateur, le Pérou, et la Bolivie[4].
-Aux Etats-Unis, Spermacoce prostrata est largement répandu en Floride, avec quelques populations isolées en Alabama et dans le Mississippi[5],[6].
-L'espèce serait naturalisée à Hawaï, en Chine (Hainan, Hong Kong), au Japon, à Taïwan, au Sri Lanka, en Thaïlande et à Java[7],[8],[9]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Spermacoce prostrata est présent du Mexique au Brésil en passant par l'Amérique centrale, les Antilles, la Colombie, le Venezuela, le Guyana, le Suriname, la Guyane, l'Équateur, le Pérou, et la Bolivie.
+Aux Etats-Unis, Spermacoce prostrata est largement répandu en Floride, avec quelques populations isolées en Alabama et dans le Mississippi,.
+L'espèce serait naturalisée à Hawaï, en Chine (Hainan, Hong Kong), au Japon, à Taïwan, au Sri Lanka, en Thaïlande et à Java
 .
 </t>
         </is>
@@ -580,10 +596,12 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Spermacoce prostrata a été longtemps combinée avec plusieurs autres taxons sous le nom de Spermacoce ocymoides Burm. f..
-Au sein de son complexe, Spermacoce prostrata se distingue par ses capsules cartilagineuses et ses graines ornées d'environ 8 rangées longitudinales de perforations arrondies relativement grandes. Steyermark (dans les herbiers) a apparemment parfois confondu S. prostrata avec Spermacoce hispida. Le nom Spermacoce gracilis Ruiz &amp; Pav. est probablement un synonyme de S. prostrata[4].
+Au sein de son complexe, Spermacoce prostrata se distingue par ses capsules cartilagineuses et ses graines ornées d'environ 8 rangées longitudinales de perforations arrondies relativement grandes. Steyermark (dans les herbiers) a apparemment parfois confondu S. prostrata avec Spermacoce hispida. Le nom Spermacoce gracilis Ruiz &amp; Pav. est probablement un synonyme de S. prostrata.
 </t>
         </is>
       </c>
@@ -612,10 +630,12 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Spermacoce prostrata est une adventice des sites humides perturbés tels que les bords de chemins et de rivières, à 50-400 m d'altitude[4].
-Spermacoce prostrata pousse dans des pâturages du nord de la Floride, où ses fleurs sont visitées par la guêpe Larra bicolor F., parasitoïde spécialiste des courtilières Scapteriscus (Gryllotalpidae)[10].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Spermacoce prostrata est une adventice des sites humides perturbés tels que les bords de chemins et de rivières, à 50-400 m d'altitude.
+Spermacoce prostrata pousse dans des pâturages du nord de la Floride, où ses fleurs sont visitées par la guêpe Larra bicolor F., parasitoïde spécialiste des courtilières Scapteriscus (Gryllotalpidae).
 </t>
         </is>
       </c>
@@ -644,7 +664,9 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>En 1775, le botaniste Aublet a décrit cette espèce sous deux noms différents Spermacoce prostrata et Spermacoce radicans, dont les protologues sont les suivants :
 « 3. SPERMACOCE (proſtrata) foliis parvis, ovatis, levibus. (tabula 20. Fig. 3.)
